--- a/BackTest/2020-01-25 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-25 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11671,10 +11671,14 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J342" t="n">
+        <v>215.2</v>
+      </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
@@ -11704,7 +11708,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>215.2</v>
@@ -11712,7 +11716,11 @@
       <c r="J343" t="n">
         <v>215.2</v>
       </c>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,9 +11749,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>215.2</v>
+      </c>
       <c r="J344" t="n">
         <v>215.2</v>
       </c>
@@ -11780,7 +11790,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>215.2</v>
@@ -11788,44 +11798,48 @@
       <c r="J345" t="n">
         <v>215.2</v>
       </c>
-      <c r="K345" t="inlineStr">
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="C346" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="D346" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="E346" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="F346" t="n">
+        <v>178.0925</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-78716.94277325</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J346" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="K346" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="C346" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="D346" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="E346" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="F346" t="n">
-        <v>178.0925</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-78716.94277325</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11854,11 +11868,19 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J347" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12052,14 +12074,10 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J353" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
@@ -12092,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12128,19 +12140,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J355" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12169,14 +12173,10 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J356" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
@@ -12206,19 +12206,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J357" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12250,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12682,17 +12668,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12725,11 +12705,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12762,11 +12738,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12799,11 +12771,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12836,11 +12804,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12873,11 +12837,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12910,11 +12870,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12947,11 +12903,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12984,11 +12936,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13021,11 +12969,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13058,11 +13002,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13095,11 +13035,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13132,11 +13068,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13169,11 +13101,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13206,11 +13134,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13243,11 +13167,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13280,11 +13200,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13317,11 +13233,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13266,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13387,17 +13295,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13426,17 +13328,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13465,17 +13361,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13504,17 +13394,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13543,17 +13427,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13582,17 +13460,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13621,17 +13493,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13660,17 +13526,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13699,17 +13559,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13738,17 +13592,11 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13777,17 +13625,11 @@
         <v>-73758.60997325</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13816,17 +13658,11 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13855,17 +13691,11 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13894,17 +13724,11 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13933,17 +13757,11 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13972,17 +13790,11 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14011,17 +13823,11 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14050,17 +13856,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14089,17 +13889,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14128,17 +13922,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14167,17 +13955,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14206,17 +13988,11 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14245,17 +14021,11 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14284,17 +14054,11 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14323,17 +14087,11 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14362,17 +14120,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14401,17 +14153,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14440,17 +14186,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14479,17 +14219,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14518,17 +14252,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14557,17 +14285,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14596,17 +14318,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14635,17 +14351,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14674,17 +14384,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14713,17 +14417,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14752,17 +14450,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14791,17 +14483,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14830,17 +14516,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14869,17 +14549,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14908,17 +14582,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14947,17 +14615,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14986,17 +14648,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15025,17 +14681,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15064,17 +14714,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15103,17 +14747,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15142,17 +14780,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15181,17 +14813,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15220,17 +14846,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15259,17 +14879,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15298,17 +14912,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15337,17 +14945,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15376,17 +14978,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15415,17 +15011,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15454,17 +15044,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15493,17 +15077,11 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15532,17 +15110,11 @@
         <v>-88026.93007325</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15571,17 +15143,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15610,17 +15176,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15649,17 +15209,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15688,17 +15242,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15727,17 +15275,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15766,17 +15308,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15805,17 +15341,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15844,17 +15374,11 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15883,17 +15407,11 @@
         <v>-90100.42887325</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15922,17 +15440,11 @@
         <v>-85915.75197324999</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15961,17 +15473,11 @@
         <v>-80807.43797324999</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16000,17 +15506,11 @@
         <v>-89508.44437324999</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16039,17 +15539,11 @@
         <v>-89508.44437324999</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16078,17 +15572,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16117,17 +15605,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16156,17 +15638,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16195,17 +15671,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16234,17 +15704,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16273,17 +15737,11 @@
         <v>-87367.63817324999</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16312,17 +15770,11 @@
         <v>-94065.40527324998</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16351,17 +15803,11 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16390,17 +15836,11 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16429,17 +15869,11 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16472,11 +15906,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16509,11 +15939,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16542,17 +15968,11 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16581,17 +16001,11 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16624,11 +16038,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16657,17 +16067,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16696,17 +16100,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16735,17 +16133,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16774,17 +16166,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16813,17 +16199,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16852,17 +16232,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16891,17 +16265,11 @@
         <v>-48081.30147324999</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16934,11 +16302,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16971,11 +16335,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17004,17 +16364,11 @@
         <v>-42092.01327324998</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17047,11 +16401,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17080,17 +16430,11 @@
         <v>-44150.63927324998</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>217.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17123,11 +16467,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17160,11 +16500,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17197,11 +16533,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17234,11 +16566,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17271,11 +16599,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17308,11 +16632,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17345,11 +16665,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17382,11 +16698,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17419,11 +16731,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17456,11 +16764,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17493,11 +16797,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17530,11 +16830,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17567,11 +16863,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17604,11 +16896,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17641,11 +16929,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17678,11 +16962,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17715,11 +16995,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17752,11 +17028,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17789,11 +17061,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17826,11 +17094,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17863,11 +17127,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17900,11 +17160,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17937,11 +17193,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +17226,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18011,11 +17259,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18048,11 +17292,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18085,11 +17325,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18122,11 +17358,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18159,11 +17391,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18196,11 +17424,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18233,11 +17457,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18270,11 +17490,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18307,11 +17523,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18344,11 +17556,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18381,11 +17589,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18418,11 +17622,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18455,11 +17655,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18492,11 +17688,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18529,11 +17721,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18566,11 +17754,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18603,11 +17787,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18640,11 +17820,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18677,11 +17853,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18714,11 +17886,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18751,11 +17919,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18788,11 +17952,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18825,11 +17985,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18862,11 +18018,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18899,11 +18051,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18936,11 +18084,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18973,11 +18117,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19010,11 +18150,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19047,11 +18183,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19084,11 +18216,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19121,11 +18249,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19158,11 +18282,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +18315,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19232,11 +18348,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19269,11 +18381,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19306,11 +18414,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19343,11 +18447,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19380,11 +18480,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19417,11 +18513,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19454,11 +18546,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19491,11 +18579,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19528,11 +18612,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19565,11 +18645,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19602,11 +18678,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19639,11 +18711,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19676,11 +18744,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19713,11 +18777,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19750,11 +18810,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19787,11 +18843,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19824,11 +18876,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19861,11 +18909,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19898,11 +18942,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19935,11 +18975,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19972,11 +19008,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20009,11 +19041,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20046,11 +19074,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20083,11 +19107,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20120,11 +19140,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20157,11 +19173,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20194,11 +19206,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20231,11 +19239,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20268,11 +19272,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20305,11 +19305,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20342,11 +19338,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20379,11 +19371,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +19404,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20453,11 +19437,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20490,11 +19470,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20527,11 +19503,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20564,11 +19536,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20601,11 +19569,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20638,11 +19602,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20675,11 +19635,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20712,11 +19668,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20749,11 +19701,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20786,11 +19734,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20823,11 +19767,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20860,11 +19800,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20897,11 +19833,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20934,11 +19866,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20971,11 +19899,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21008,11 +19932,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21045,11 +19965,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21082,11 +19998,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21119,11 +20031,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21156,11 +20064,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21193,11 +20097,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21230,11 +20130,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21267,11 +20163,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21304,11 +20196,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21341,11 +20229,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21378,11 +20262,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21415,11 +20295,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21452,11 +20328,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21489,11 +20361,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21526,11 +20394,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21563,11 +20427,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21600,11 +20460,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +20493,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21674,11 +20526,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21711,11 +20559,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21748,11 +20592,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21785,11 +20625,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21822,11 +20658,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21859,11 +20691,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21896,11 +20724,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21933,11 +20757,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21970,11 +20790,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22007,11 +20823,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22044,11 +20856,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22081,11 +20889,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22118,11 +20922,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22155,11 +20955,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22192,11 +20988,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22229,11 +21021,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22266,11 +21054,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22303,11 +21087,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22340,11 +21120,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22377,11 +21153,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22414,11 +21186,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22451,11 +21219,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22488,11 +21252,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22525,11 +21285,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22562,11 +21318,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22599,11 +21351,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22636,11 +21384,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22673,11 +21417,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22710,11 +21450,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22747,11 +21483,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22784,11 +21516,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22821,11 +21549,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +21582,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22895,11 +21615,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22932,11 +21648,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22969,11 +21681,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23006,11 +21714,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23043,11 +21747,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23080,11 +21780,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23117,11 +21813,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23154,11 +21846,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23191,11 +21879,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23228,11 +21912,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23265,11 +21945,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23302,11 +21978,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23339,11 +22011,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23376,11 +22044,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23413,11 +22077,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23450,11 +22110,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23487,11 +22143,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23524,11 +22176,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23561,11 +22209,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23598,11 +22242,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23635,11 +22275,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23672,11 +22308,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23709,11 +22341,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23746,11 +22374,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23783,11 +22407,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23820,11 +22440,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23857,11 +22473,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23894,11 +22506,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23931,11 +22539,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23968,11 +22572,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24005,11 +22605,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24042,11 +22638,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +22671,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24116,11 +22704,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24153,11 +22737,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24190,11 +22770,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24227,11 +22803,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24264,11 +22836,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24301,11 +22869,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24338,11 +22902,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24375,11 +22935,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +22968,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24445,16 +22997,14 @@
         <v>-30830.16177757999</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
       <c r="M684" t="inlineStr"/>
     </row>
     <row r="685">
@@ -24480,7 +23030,7 @@
         <v>-22157.39468714999</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24513,7 +23063,7 @@
         <v>-13928.63298714999</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24546,7 +23096,7 @@
         <v>-31714.40358714999</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24579,7 +23129,7 @@
         <v>-27438.43198714999</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24612,7 +23162,7 @@
         <v>-24850.17328714999</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24645,7 +23195,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24678,7 +23228,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24711,7 +23261,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24744,7 +23294,7 @@
         <v>-25866.61092309999</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24810,7 +23360,7 @@
         <v>-8896.673923099992</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24843,7 +23393,7 @@
         <v>-5605.890823099991</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24876,7 +23426,7 @@
         <v>-11086.63802309999</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24909,7 +23459,7 @@
         <v>-14050.05449870999</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24942,7 +23492,7 @@
         <v>-20965.13369870999</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24975,7 +23525,7 @@
         <v>-24323.82139870999</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25008,7 +23558,7 @@
         <v>-20033.28789870999</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25107,7 +23657,7 @@
         <v>-20375.25279870999</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25140,7 +23690,7 @@
         <v>-14840.46799870999</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25173,7 +23723,7 @@
         <v>-19208.55269870999</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25206,7 +23756,7 @@
         <v>-17681.99169870999</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25239,7 +23789,7 @@
         <v>-21297.22569870999</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25272,7 +23822,7 @@
         <v>-19348.79899870999</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25305,7 +23855,7 @@
         <v>-15231.40309870999</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25338,7 +23888,7 @@
         <v>-9389.403898709987</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25371,7 +23921,7 @@
         <v>-11231.63669870999</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25404,7 +23954,7 @@
         <v>-9760.248098709986</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25437,7 +23987,7 @@
         <v>-7710.481298709987</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25470,7 +24020,7 @@
         <v>-10379.35499870999</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25503,7 +24053,7 @@
         <v>-13943.87529870999</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25536,7 +24086,7 @@
         <v>-13943.87529870999</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25569,7 +24119,7 @@
         <v>-13014.52779870999</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25602,7 +24152,7 @@
         <v>-17091.47239870999</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25668,7 +24218,7 @@
         <v>-13482.37419870999</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25701,7 +24251,7 @@
         <v>-11566.95499870999</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25734,7 +24284,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25767,7 +24317,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25800,7 +24350,7 @@
         <v>-9531.758098709985</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25833,7 +24383,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25866,7 +24416,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25899,7 +24449,7 @@
         <v>-11181.55989870999</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25932,7 +24482,7 @@
         <v>-6304.388698709986</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25965,7 +24515,7 @@
         <v>-2707.854398709986</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25998,7 +24548,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26031,7 +24581,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26064,7 +24614,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26097,7 +24647,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26130,7 +24680,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26163,7 +24713,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26196,7 +24746,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26229,7 +24779,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26262,7 +24812,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26295,7 +24845,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26328,7 +24878,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26361,7 +24911,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26394,7 +24944,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26427,7 +24977,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26460,7 +25010,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26493,7 +25043,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26526,7 +25076,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26559,7 +25109,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26592,7 +25142,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26625,7 +25175,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26658,7 +25208,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26691,7 +25241,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26724,7 +25274,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26757,7 +25307,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26790,7 +25340,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26823,7 +25373,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26856,7 +25406,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26889,7 +25439,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26922,7 +25472,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26955,7 +25505,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26988,7 +25538,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27021,7 +25571,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27054,7 +25604,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27087,7 +25637,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27120,7 +25670,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27153,7 +25703,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27186,7 +25736,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27219,7 +25769,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27252,7 +25802,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27285,7 +25835,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27318,7 +25868,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27351,7 +25901,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27384,7 +25934,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27417,7 +25967,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27450,7 +26000,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27483,7 +26033,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27516,7 +26066,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27549,7 +26099,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27582,7 +26132,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27615,7 +26165,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27648,7 +26198,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27681,7 +26231,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27714,7 +26264,7 @@
         <v>-22095.57359870999</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27747,7 +26297,7 @@
         <v>-26634.40669870999</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27780,7 +26330,7 @@
         <v>-29203.91679870999</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27813,7 +26363,7 @@
         <v>-26935.69339870999</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27846,7 +26396,7 @@
         <v>-24897.95869870999</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27879,7 +26429,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27912,7 +26462,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27945,7 +26495,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27978,7 +26528,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28011,7 +26561,7 @@
         <v>-46700.73369870998</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28044,7 +26594,7 @@
         <v>-43168.84109870999</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28077,7 +26627,7 @@
         <v>-48405.99349870998</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28110,7 +26660,7 @@
         <v>-46548.32299870998</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28143,7 +26693,7 @@
         <v>-48162.95999870999</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28176,7 +26726,7 @@
         <v>-48162.95999870999</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28209,7 +26759,7 @@
         <v>-44013.64429870999</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28242,7 +26792,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28275,7 +26825,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28308,7 +26858,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28341,7 +26891,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28374,7 +26924,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28407,7 +26957,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28440,7 +26990,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28473,7 +27023,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28506,7 +27056,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -32697,7 +31247,7 @@
         <v>-64954.42459871002</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32730,7 +31280,7 @@
         <v>-64954.42459871002</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32763,7 +31313,7 @@
         <v>-64954.42459871002</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32796,7 +31346,7 @@
         <v>-64954.42459871002</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32829,7 +31379,7 @@
         <v>-64954.42459871002</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32862,7 +31412,7 @@
         <v>-62455.43649871002</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32895,7 +31445,7 @@
         <v>-62455.43649871002</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32928,7 +31478,7 @@
         <v>-62455.43649871002</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32961,7 +31511,7 @@
         <v>-61323.15609871002</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32994,7 +31544,7 @@
         <v>-59588.38549871001</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33027,7 +31577,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33060,7 +31610,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33093,7 +31643,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33126,7 +31676,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33159,7 +31709,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33192,7 +31742,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33225,7 +31775,7 @@
         <v>-62680.43209871001</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33258,7 +31808,7 @@
         <v>-61292.71189871001</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33291,7 +31841,7 @@
         <v>-61292.71189871001</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33324,7 +31874,7 @@
         <v>-61292.71189871001</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33357,7 +31907,7 @@
         <v>-67434.81659871001</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33390,7 +31940,7 @@
         <v>-67434.81659871001</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33423,7 +31973,7 @@
         <v>-67434.81659871001</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33456,7 +32006,7 @@
         <v>-67434.81659871001</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33489,7 +32039,7 @@
         <v>-67434.81659871001</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33588,7 +32138,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33621,7 +32171,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33654,7 +32204,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33753,7 +32303,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33852,7 +32402,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33885,7 +32435,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33918,7 +32468,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33984,7 +32534,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34017,7 +32567,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34116,7 +32666,7 @@
         <v>-70617.21459871001</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34149,7 +32699,7 @@
         <v>-69606.11719871001</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34182,7 +32732,7 @@
         <v>-69606.11719871001</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34215,7 +32765,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34248,7 +32798,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34281,7 +32831,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34314,7 +32864,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34347,7 +32897,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34380,7 +32930,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34413,7 +32963,7 @@
         <v>-67911.12019871001</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34446,7 +32996,7 @@
         <v>-67687.19089871</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34479,7 +33029,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34512,7 +33062,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34545,7 +33095,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34578,7 +33128,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34611,7 +33161,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34644,7 +33194,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34677,7 +33227,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34710,7 +33260,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34743,7 +33293,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34776,7 +33326,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34809,7 +33359,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34842,7 +33392,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34875,7 +33425,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34908,7 +33458,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1001" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34941,7 +33491,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1002" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34974,7 +33524,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35007,7 +33557,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35040,7 +33590,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35073,7 +33623,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35106,7 +33656,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35139,7 +33689,7 @@
         <v>-68684.21439871</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35172,7 +33722,7 @@
         <v>-62778.89839871</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35205,7 +33755,7 @@
         <v>-61179.75549871</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35238,7 +33788,7 @@
         <v>-60320.14179871</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35271,7 +33821,7 @@
         <v>-60320.14179871</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35304,7 +33854,7 @@
         <v>-60320.14179871</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35337,7 +33887,7 @@
         <v>-60320.14179871</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35370,7 +33920,7 @@
         <v>-60320.14179871</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35403,7 +33953,7 @@
         <v>-56575.61569871</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35436,7 +33986,7 @@
         <v>-53727.15879871</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35469,7 +34019,7 @@
         <v>-58570.87489871</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35502,7 +34052,7 @@
         <v>-63451.50839870999</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35535,7 +34085,7 @@
         <v>-61300.08619870999</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35568,7 +34118,7 @@
         <v>-63137.99609870999</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35601,7 +34151,7 @@
         <v>-66124.24259870999</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35634,7 +34184,7 @@
         <v>-66124.24259870999</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35667,7 +34217,7 @@
         <v>-66124.24259870999</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35700,7 +34250,7 @@
         <v>-66124.24259870999</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35766,7 +34316,7 @@
         <v>-66124.24259870999</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35799,7 +34349,7 @@
         <v>-66124.24259870999</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35931,7 +34481,7 @@
         <v>-72950.79799871</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36030,7 +34580,7 @@
         <v>-72950.79799871</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36063,7 +34613,7 @@
         <v>-72950.79799871</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37680,7 +36230,7 @@
         <v>-69003.53349870999</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37713,7 +36263,7 @@
         <v>-69003.53349870999</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38175,7 +36725,7 @@
         <v>-66395.98829871</v>
       </c>
       <c r="H1100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38208,7 +36758,7 @@
         <v>-66395.98829871</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38241,7 +36791,7 @@
         <v>-66395.98829871</v>
       </c>
       <c r="H1102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38274,7 +36824,7 @@
         <v>-66395.98829871</v>
       </c>
       <c r="H1103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -40947,7 +39497,7 @@
         <v>-62296.90206399997</v>
       </c>
       <c r="H1184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41013,7 +39563,7 @@
         <v>-62296.90206399997</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41145,7 +39695,7 @@
         <v>-68319.44638704997</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41178,7 +39728,7 @@
         <v>-66348.47038704998</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -41739,17 +40289,11 @@
         <v>-89253.15718704998</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>214.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41778,17 +40322,11 @@
         <v>-86186.01968704998</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41817,17 +40355,11 @@
         <v>-81844.27218704998</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41856,17 +40388,11 @@
         <v>-80174.25008704998</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41895,17 +40421,11 @@
         <v>-81710.68078704998</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41934,17 +40454,11 @@
         <v>-81710.68078704998</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41973,17 +40487,11 @@
         <v>-78670.15268704998</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -42012,17 +40520,11 @@
         <v>-79499.29988704999</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -42051,17 +40553,11 @@
         <v>-77508.06138704998</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>215.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -42090,17 +40586,11 @@
         <v>-81021.42038704998</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>215.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -42129,17 +40619,11 @@
         <v>-81021.42038704998</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -42168,17 +40652,11 @@
         <v>-81021.42038704998</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -42207,17 +40685,11 @@
         <v>-81021.42038704998</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1220" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -42246,17 +40718,11 @@
         <v>-81021.42038704998</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1221" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -42285,17 +40751,11 @@
         <v>-81021.42038704998</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1222" t="n">
-        <v>215.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -42328,11 +40788,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42365,11 +40821,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42402,11 +40854,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42439,11 +40887,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42476,11 +40920,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42513,11 +40953,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42550,11 +40986,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42587,11 +41019,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42624,11 +41052,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42661,11 +41085,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42698,11 +41118,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42735,11 +41151,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42772,11 +41184,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42809,11 +41217,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42846,11 +41250,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42883,11 +41283,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42920,11 +41316,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42957,11 +41349,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42994,11 +41382,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -43031,11 +41415,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -43068,11 +41448,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43105,11 +41481,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43142,11 +41514,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43179,11 +41547,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43216,11 +41580,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43253,11 +41613,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43290,11 +41646,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43327,11 +41679,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43364,11 +41712,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43401,11 +41745,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43438,11 +41778,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43475,11 +41811,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43512,11 +41844,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43549,11 +41877,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43586,11 +41910,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43623,11 +41943,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43660,11 +41976,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43697,11 +42009,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43734,11 +42042,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43771,11 +42075,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43808,11 +42108,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43845,11 +42141,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43882,11 +42174,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43919,11 +42207,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43956,11 +42240,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -43993,11 +42273,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -44030,11 +42306,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -44067,11 +42339,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -44104,11 +42372,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -44141,11 +42405,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -44178,11 +42438,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -44215,11 +42471,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -44252,11 +42504,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -44289,11 +42537,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -44326,11 +42570,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -44363,11 +42603,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -44400,11 +42636,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -44437,11 +42669,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -44474,17 +42702,13 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
       <c r="M1281" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-25 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11671,14 +11671,10 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J342" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
@@ -11708,19 +11704,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J343" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11749,19 +11737,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J344" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11790,14 +11770,10 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J345" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
@@ -11827,19 +11803,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J346" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11868,19 +11836,11 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="J347" t="n">
-        <v>215.2</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13262,10 +13222,14 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J389" t="n">
+        <v>215.3</v>
+      </c>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
@@ -13295,11 +13259,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J390" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13328,11 +13300,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J391" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13361,10 +13341,14 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J392" t="n">
+        <v>215.3</v>
+      </c>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
@@ -13394,11 +13378,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J393" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13427,11 +13419,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J394" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13460,10 +13460,14 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J395" t="n">
+        <v>215.3</v>
+      </c>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
@@ -13493,11 +13497,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J396" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13526,11 +13538,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J397" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13559,10 +13579,14 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J398" t="n">
+        <v>215.3</v>
+      </c>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
@@ -13592,11 +13616,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J399" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13625,11 +13657,19 @@
         <v>-73758.60997325</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J400" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13658,10 +13698,14 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="J401" t="n">
+        <v>215.5</v>
+      </c>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -13691,11 +13735,19 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J402" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13724,11 +13776,19 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J403" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13757,10 +13817,14 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J404" t="n">
+        <v>215.4</v>
+      </c>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -13790,11 +13854,19 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J405" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13823,11 +13895,19 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J406" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13856,11 +13936,19 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J407" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13889,11 +13977,19 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J408" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13922,11 +14018,19 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J409" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13955,11 +14059,19 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J410" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13988,11 +14100,19 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J411" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14021,11 +14141,19 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J412" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +14182,19 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J413" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14087,11 +14223,19 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J414" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14120,11 +14264,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J415" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14153,11 +14305,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J416" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14186,11 +14346,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J417" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14219,11 +14387,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J418" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14252,11 +14428,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J419" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14285,11 +14469,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J420" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14318,11 +14510,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J421" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14351,11 +14551,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J422" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14384,11 +14592,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J423" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14417,11 +14633,19 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J424" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14450,11 +14674,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J425" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14483,11 +14715,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J426" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14516,11 +14756,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J427" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14549,11 +14797,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J428" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14582,11 +14838,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J429" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14615,11 +14879,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J430" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14648,11 +14920,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J431" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14681,11 +14961,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J432" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14714,11 +15002,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J433" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14747,11 +15043,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J434" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14780,11 +15084,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J435" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14813,11 +15125,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J436" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14846,11 +15166,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J437" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14879,11 +15207,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J438" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14912,11 +15248,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J439" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14945,11 +15289,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J440" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14978,11 +15330,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J441" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15011,11 +15371,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J442" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15044,11 +15412,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J443" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15077,11 +15453,19 @@
         <v>-92456.04457324999</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J444" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15110,11 +15494,19 @@
         <v>-88026.93007325</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J445" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15143,11 +15535,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J446" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15176,11 +15576,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J447" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15209,11 +15617,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J448" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15242,11 +15658,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J449" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +15699,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J450" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15308,11 +15740,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J451" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15341,11 +15781,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J452" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15374,11 +15822,19 @@
         <v>-91336.16877325</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J453" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15407,11 +15863,19 @@
         <v>-90100.42887325</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="J454" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15440,11 +15904,19 @@
         <v>-85915.75197324999</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J455" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15473,11 +15945,19 @@
         <v>-80807.43797324999</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J456" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15506,11 +15986,19 @@
         <v>-89508.44437324999</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="J457" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15539,11 +16027,19 @@
         <v>-89508.44437324999</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J458" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +16068,19 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="J459" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15605,11 +16109,19 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J460" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15638,11 +16150,19 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J461" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15671,11 +16191,19 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J462" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15704,11 +16232,19 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J463" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15737,11 +16273,19 @@
         <v>-87367.63817324999</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J464" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15770,11 +16314,19 @@
         <v>-94065.40527324998</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="J465" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +16355,19 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J466" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15839,8 +16399,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15872,8 +16438,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15905,8 +16477,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15938,8 +16516,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15971,8 +16555,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16004,8 +16594,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16037,8 +16633,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16070,8 +16672,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16103,8 +16711,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16136,8 +16750,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16169,8 +16789,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16202,8 +16828,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16235,8 +16867,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16268,8 +16906,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16301,8 +16945,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16334,8 +16984,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16367,8 +17023,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16400,8 +17062,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16433,8 +17101,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16466,8 +17140,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16499,8 +17179,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16532,8 +17218,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16565,8 +17257,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16598,8 +17296,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16631,8 +17335,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16664,8 +17374,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16697,8 +17413,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16730,8 +17452,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16763,8 +17491,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16796,8 +17530,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16829,8 +17569,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16862,8 +17608,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16895,8 +17647,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16928,8 +17686,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16961,8 +17725,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16994,8 +17764,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17027,8 +17803,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17060,8 +17842,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17093,8 +17881,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17126,8 +17920,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17159,8 +17959,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17192,8 +17998,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17225,8 +18037,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17258,8 +18076,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17291,8 +18115,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17324,8 +18154,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17357,8 +18193,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17390,8 +18232,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17423,8 +18271,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17456,8 +18310,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17489,8 +18349,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17522,8 +18388,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17555,8 +18427,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17588,8 +18466,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17621,8 +18505,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17654,8 +18544,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17687,8 +18583,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17720,8 +18622,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17753,8 +18661,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17786,8 +18700,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17819,8 +18739,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17852,8 +18778,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17885,8 +18817,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17918,8 +18856,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17951,8 +18895,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17984,8 +18934,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18017,8 +18973,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18050,8 +19012,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18083,8 +19051,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18116,8 +19090,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18149,8 +19129,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18182,8 +19168,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18215,8 +19207,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18248,8 +19246,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18281,8 +19285,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18314,8 +19324,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18347,8 +19363,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18380,8 +19402,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18413,8 +19441,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18446,8 +19480,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18479,8 +19519,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18512,8 +19558,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18545,8 +19597,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18578,8 +19636,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18611,8 +19675,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18644,8 +19714,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18677,8 +19753,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18710,8 +19792,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18743,8 +19831,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18776,8 +19870,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18809,8 +19909,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18842,8 +19948,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18875,8 +19987,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18908,8 +20026,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18941,8 +20065,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18974,8 +20104,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19007,8 +20143,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19040,8 +20182,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19073,8 +20221,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19106,8 +20260,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19139,8 +20299,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19172,8 +20338,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19205,8 +20377,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19238,8 +20416,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19271,8 +20455,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19304,8 +20494,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19337,8 +20533,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19370,8 +20572,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19403,8 +20611,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19436,8 +20650,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19469,8 +20689,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19502,8 +20728,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19535,8 +20767,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19568,8 +20806,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19601,8 +20845,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19634,8 +20884,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19667,8 +20923,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19700,8 +20962,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19733,8 +21001,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19766,8 +21040,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19799,8 +21079,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19832,8 +21118,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19865,8 +21157,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19898,8 +21196,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19931,8 +21235,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19964,8 +21274,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19997,8 +21313,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20030,8 +21352,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20063,8 +21391,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20096,8 +21430,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20129,8 +21469,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20162,8 +21508,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20195,8 +21547,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20228,8 +21586,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20261,8 +21625,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20294,8 +21664,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20327,8 +21703,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +21742,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20393,8 +21781,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20426,8 +21820,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20459,8 +21859,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20492,8 +21898,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20525,8 +21937,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20558,8 +21976,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20591,8 +22015,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20624,8 +22054,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20657,8 +22093,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20690,8 +22132,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20723,8 +22171,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20756,8 +22210,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20789,8 +22249,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20822,8 +22288,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20855,8 +22327,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20888,8 +22366,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20921,8 +22405,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20954,8 +22444,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20987,8 +22483,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21020,8 +22522,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21053,8 +22561,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21086,8 +22600,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21119,8 +22639,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21152,8 +22678,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21185,8 +22717,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21218,8 +22756,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21251,8 +22795,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21284,8 +22834,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21317,8 +22873,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21350,8 +22912,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21383,8 +22951,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21416,8 +22990,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21449,8 +23029,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21482,8 +23068,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21515,8 +23107,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21548,8 +23146,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21581,8 +23185,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21614,8 +23224,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21647,8 +23263,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21680,8 +23302,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21713,8 +23341,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21746,8 +23380,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21779,8 +23419,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21812,8 +23458,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21845,8 +23497,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21878,8 +23536,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21911,8 +23575,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21944,8 +23614,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21977,8 +23653,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22010,8 +23692,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22043,8 +23731,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22076,8 +23770,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22109,8 +23809,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22142,8 +23848,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22175,8 +23887,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22208,8 +23926,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22241,8 +23965,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22274,8 +24004,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22307,8 +24043,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22340,8 +24082,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22373,8 +24121,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22406,8 +24160,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22439,8 +24199,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22472,8 +24238,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22505,8 +24277,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22538,8 +24316,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22571,8 +24355,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22604,8 +24394,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22637,8 +24433,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22670,8 +24472,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22703,8 +24511,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22736,8 +24550,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22769,8 +24589,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22802,8 +24628,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22835,8 +24667,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22868,8 +24706,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22901,8 +24745,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22934,8 +24784,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22967,8 +24823,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23000,8 +24862,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23033,8 +24901,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23066,8 +24940,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23096,13 +24976,19 @@
         <v>-31714.40358714999</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L687" t="n">
-        <v>1</v>
+        <v>1.024712163416899</v>
       </c>
       <c r="M687" t="inlineStr"/>
     </row>
@@ -23129,7 +25015,7 @@
         <v>-27438.43198714999</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23162,7 +25048,7 @@
         <v>-24850.17328714999</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23195,7 +25081,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23228,7 +25114,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23261,7 +25147,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23294,7 +25180,7 @@
         <v>-25866.61092309999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23327,7 +25213,7 @@
         <v>-20811.21182309999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23657,7 +25543,7 @@
         <v>-20375.25279870999</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23690,7 +25576,7 @@
         <v>-14840.46799870999</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23723,7 +25609,7 @@
         <v>-19208.55269870999</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23756,7 +25642,7 @@
         <v>-17681.99169870999</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23789,7 +25675,7 @@
         <v>-21297.22569870999</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23921,7 +25807,7 @@
         <v>-11231.63669870999</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23987,7 +25873,7 @@
         <v>-7710.481298709987</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24020,7 +25906,7 @@
         <v>-10379.35499870999</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24185,7 +26071,7 @@
         <v>-12785.27309870999</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24218,7 +26104,7 @@
         <v>-13482.37419870999</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24251,7 +26137,7 @@
         <v>-11566.95499870999</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24284,7 +26170,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24317,7 +26203,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24350,7 +26236,7 @@
         <v>-9531.758098709985</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24383,7 +26269,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24416,7 +26302,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24449,7 +26335,7 @@
         <v>-11181.55989870999</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24482,7 +26368,7 @@
         <v>-6304.388698709986</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24515,7 +26401,7 @@
         <v>-2707.854398709986</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24548,7 +26434,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24581,7 +26467,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24614,7 +26500,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24647,7 +26533,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24680,7 +26566,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24713,7 +26599,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24746,7 +26632,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24779,7 +26665,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24812,7 +26698,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24845,7 +26731,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24878,7 +26764,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24911,7 +26797,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24944,7 +26830,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24977,7 +26863,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25010,7 +26896,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25043,7 +26929,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25076,7 +26962,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25109,7 +26995,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25142,7 +27028,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25175,7 +27061,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25208,7 +27094,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25241,7 +27127,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25274,7 +27160,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25307,7 +27193,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25340,7 +27226,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25373,7 +27259,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25406,7 +27292,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25439,7 +27325,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25472,7 +27358,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25505,7 +27391,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25538,7 +27424,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25571,7 +27457,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25604,7 +27490,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25637,7 +27523,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25670,7 +27556,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25703,7 +27589,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25736,7 +27622,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25769,7 +27655,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25802,7 +27688,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25835,7 +27721,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25868,7 +27754,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25901,7 +27787,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25934,7 +27820,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25967,7 +27853,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26000,7 +27886,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26033,7 +27919,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26066,7 +27952,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26099,7 +27985,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26132,7 +28018,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26165,7 +28051,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26198,7 +28084,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26231,7 +28117,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26264,7 +28150,7 @@
         <v>-22095.57359870999</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26297,7 +28183,7 @@
         <v>-26634.40669870999</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26330,7 +28216,7 @@
         <v>-29203.91679870999</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26363,7 +28249,7 @@
         <v>-26935.69339870999</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26396,7 +28282,7 @@
         <v>-24897.95869870999</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26429,7 +28315,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26462,7 +28348,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26495,7 +28381,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26528,7 +28414,7 @@
         <v>-29179.33709870998</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26561,7 +28447,7 @@
         <v>-46700.73369870998</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26594,7 +28480,7 @@
         <v>-43168.84109870999</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26627,7 +28513,7 @@
         <v>-48405.99349870998</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26660,7 +28546,7 @@
         <v>-46548.32299870998</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26693,7 +28579,7 @@
         <v>-48162.95999870999</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26726,7 +28612,7 @@
         <v>-48162.95999870999</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26759,7 +28645,7 @@
         <v>-44013.64429870999</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26792,7 +28678,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26825,7 +28711,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26858,7 +28744,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26891,7 +28777,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26924,7 +28810,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26957,7 +28843,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26990,7 +28876,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27023,7 +28909,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27056,7 +28942,7 @@
         <v>-47060.19389870999</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -42709,6 +44595,6 @@
       <c r="M1281" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-25 BackTest LUNA.xlsx
@@ -12991,10 +12991,14 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J382" t="n">
+        <v>215.3</v>
+      </c>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
@@ -13024,11 +13028,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J383" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13069,19 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="J384" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13113,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13152,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13191,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13230,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,15 +13266,17 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>215.3</v>
       </c>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13269,7 +13315,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L390" t="n">
@@ -13310,7 +13356,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L391" t="n">
@@ -13349,7 +13395,11 @@
       <c r="J392" t="n">
         <v>215.3</v>
       </c>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13388,7 +13438,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L393" t="n">
@@ -13429,7 +13479,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L394" t="n">
@@ -13468,7 +13518,11 @@
       <c r="J395" t="n">
         <v>215.3</v>
       </c>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13507,7 +13561,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13548,7 +13602,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13587,7 +13641,11 @@
       <c r="J398" t="n">
         <v>215.3</v>
       </c>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13626,7 +13684,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L399" t="n">
@@ -13667,7 +13725,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13698,15 +13756,17 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>215.5</v>
-      </c>
-      <c r="K401" t="inlineStr"/>
+        <v>215.3</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13735,17 +13795,15 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L402" t="n">
@@ -13776,17 +13834,15 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>215.5</v>
+        <v>215.3</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L403" t="n">
@@ -13817,15 +13873,17 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>215.4</v>
-      </c>
-      <c r="K404" t="inlineStr"/>
+        <v>215.3</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13854,17 +13912,15 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -13895,17 +13951,15 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L406" t="n">
@@ -13936,17 +13990,15 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -13977,13 +14029,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14018,13 +14068,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14059,13 +14107,11 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14100,13 +14146,11 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>215.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14141,13 +14185,11 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14182,13 +14224,11 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14229,7 +14269,7 @@
         <v>215.4</v>
       </c>
       <c r="J414" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14264,13 +14304,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14305,13 +14343,11 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14352,7 +14388,7 @@
         <v>215.3</v>
       </c>
       <c r="J417" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14393,7 +14429,7 @@
         <v>215.3</v>
       </c>
       <c r="J418" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14434,7 +14470,7 @@
         <v>215.3</v>
       </c>
       <c r="J419" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14475,7 +14511,7 @@
         <v>215.3</v>
       </c>
       <c r="J420" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14516,7 +14552,7 @@
         <v>215.3</v>
       </c>
       <c r="J421" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14557,7 +14593,7 @@
         <v>215.3</v>
       </c>
       <c r="J422" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14598,7 +14634,7 @@
         <v>215.3</v>
       </c>
       <c r="J423" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14639,7 +14675,7 @@
         <v>215.3</v>
       </c>
       <c r="J424" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14680,7 +14716,7 @@
         <v>215.3</v>
       </c>
       <c r="J425" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14721,7 +14757,7 @@
         <v>215.2</v>
       </c>
       <c r="J426" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14762,7 +14798,7 @@
         <v>215.2</v>
       </c>
       <c r="J427" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14803,7 +14839,7 @@
         <v>215.2</v>
       </c>
       <c r="J428" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14844,7 +14880,7 @@
         <v>215.2</v>
       </c>
       <c r="J429" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14885,7 +14921,7 @@
         <v>215.2</v>
       </c>
       <c r="J430" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14926,7 +14962,7 @@
         <v>215.2</v>
       </c>
       <c r="J431" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14967,7 +15003,7 @@
         <v>215.2</v>
       </c>
       <c r="J432" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15008,7 +15044,7 @@
         <v>215.2</v>
       </c>
       <c r="J433" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15049,7 +15085,7 @@
         <v>215.2</v>
       </c>
       <c r="J434" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15090,7 +15126,7 @@
         <v>215.2</v>
       </c>
       <c r="J435" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15131,7 +15167,7 @@
         <v>215.2</v>
       </c>
       <c r="J436" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15172,7 +15208,7 @@
         <v>215.2</v>
       </c>
       <c r="J437" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15213,7 +15249,7 @@
         <v>215.2</v>
       </c>
       <c r="J438" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15254,7 +15290,7 @@
         <v>215.2</v>
       </c>
       <c r="J439" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15295,7 +15331,7 @@
         <v>215.2</v>
       </c>
       <c r="J440" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15336,7 +15372,7 @@
         <v>215.2</v>
       </c>
       <c r="J441" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15377,7 +15413,7 @@
         <v>215.2</v>
       </c>
       <c r="J442" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15418,7 +15454,7 @@
         <v>215.2</v>
       </c>
       <c r="J443" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15459,7 +15495,7 @@
         <v>215.2</v>
       </c>
       <c r="J444" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15500,7 +15536,7 @@
         <v>215.2</v>
       </c>
       <c r="J445" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15541,7 +15577,7 @@
         <v>215.4</v>
       </c>
       <c r="J446" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15582,7 +15618,7 @@
         <v>215.2</v>
       </c>
       <c r="J447" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15623,7 +15659,7 @@
         <v>215.2</v>
       </c>
       <c r="J448" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15664,7 +15700,7 @@
         <v>215.2</v>
       </c>
       <c r="J449" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15705,7 +15741,7 @@
         <v>215.2</v>
       </c>
       <c r="J450" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15746,7 +15782,7 @@
         <v>215.2</v>
       </c>
       <c r="J451" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15787,7 +15823,7 @@
         <v>215.2</v>
       </c>
       <c r="J452" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15828,7 +15864,7 @@
         <v>215.2</v>
       </c>
       <c r="J453" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15869,7 +15905,7 @@
         <v>215.2</v>
       </c>
       <c r="J454" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15910,7 +15946,7 @@
         <v>215.3</v>
       </c>
       <c r="J455" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15951,7 +15987,7 @@
         <v>215.4</v>
       </c>
       <c r="J456" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15992,7 +16028,7 @@
         <v>215.6</v>
       </c>
       <c r="J457" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16033,7 +16069,7 @@
         <v>215.4</v>
       </c>
       <c r="J458" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16068,13 +16104,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>215.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16115,7 +16149,7 @@
         <v>215.3</v>
       </c>
       <c r="J460" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16150,13 +16184,11 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>215.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16197,7 +16229,7 @@
         <v>215.3</v>
       </c>
       <c r="J462" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16238,7 +16270,7 @@
         <v>215.3</v>
       </c>
       <c r="J463" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16279,7 +16311,7 @@
         <v>215.3</v>
       </c>
       <c r="J464" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16320,7 +16352,7 @@
         <v>215.5</v>
       </c>
       <c r="J465" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16361,7 +16393,7 @@
         <v>215.3</v>
       </c>
       <c r="J466" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16400,7 +16432,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16439,7 +16471,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16478,7 +16510,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16517,7 +16549,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16556,7 +16588,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16595,7 +16627,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16634,7 +16666,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16673,7 +16705,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16712,7 +16744,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16751,7 +16783,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16790,7 +16822,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16829,7 +16861,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16868,7 +16900,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16907,7 +16939,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16946,7 +16978,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16985,7 +17017,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17024,7 +17056,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17063,7 +17095,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17102,7 +17134,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17141,7 +17173,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17180,7 +17212,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17219,7 +17251,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17258,7 +17290,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17297,7 +17329,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17336,7 +17368,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17375,7 +17407,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17414,7 +17446,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17453,7 +17485,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17492,7 +17524,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17531,7 +17563,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17570,7 +17602,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17609,7 +17641,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17648,7 +17680,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17687,7 +17719,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17726,7 +17758,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17765,7 +17797,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17804,7 +17836,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17843,7 +17875,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17882,7 +17914,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17921,7 +17953,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17960,7 +17992,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17999,7 +18031,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18038,7 +18070,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18077,7 +18109,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18116,7 +18148,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18155,7 +18187,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18194,7 +18226,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18233,7 +18265,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18272,7 +18304,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18311,7 +18343,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18350,7 +18382,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18389,7 +18421,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18428,7 +18460,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18467,7 +18499,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18506,7 +18538,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18545,7 +18577,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18584,7 +18616,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18623,7 +18655,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18662,7 +18694,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18701,7 +18733,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18740,7 +18772,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18779,7 +18811,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18818,7 +18850,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18857,7 +18889,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18896,7 +18928,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18935,7 +18967,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18974,7 +19006,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19013,7 +19045,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19052,7 +19084,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19091,7 +19123,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19130,7 +19162,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19169,7 +19201,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19208,7 +19240,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19247,7 +19279,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19286,7 +19318,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19325,7 +19357,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19364,7 +19396,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19403,7 +19435,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19442,7 +19474,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19481,7 +19513,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19520,7 +19552,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19559,7 +19591,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19598,7 +19630,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19637,7 +19669,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19676,7 +19708,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19715,7 +19747,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19754,7 +19786,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19793,7 +19825,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19832,7 +19864,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19871,7 +19903,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19910,7 +19942,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19949,7 +19981,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19988,7 +20020,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20027,7 +20059,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20066,7 +20098,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20105,7 +20137,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20144,7 +20176,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -20183,7 +20215,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -20222,7 +20254,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -20261,7 +20293,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -20300,7 +20332,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20339,7 +20371,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20378,7 +20410,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20417,7 +20449,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20456,7 +20488,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20495,7 +20527,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20534,7 +20566,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20573,7 +20605,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20612,7 +20644,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20651,7 +20683,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20690,7 +20722,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20729,7 +20761,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20768,7 +20800,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20807,7 +20839,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20846,7 +20878,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20885,7 +20917,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20924,7 +20956,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20963,7 +20995,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21002,7 +21034,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21041,7 +21073,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21080,7 +21112,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -21119,7 +21151,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -21158,7 +21190,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -21197,7 +21229,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -21236,7 +21268,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -21275,7 +21307,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -21314,7 +21346,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21353,7 +21385,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21392,7 +21424,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21431,7 +21463,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21470,7 +21502,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21509,7 +21541,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21548,7 +21580,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21587,7 +21619,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21626,7 +21658,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21665,7 +21697,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21704,7 +21736,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21743,7 +21775,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21782,7 +21814,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21821,7 +21853,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21860,7 +21892,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21899,7 +21931,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21938,7 +21970,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21977,7 +22009,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22016,7 +22048,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22055,7 +22087,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -22094,7 +22126,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -22133,7 +22165,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -22172,7 +22204,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -22211,7 +22243,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -22250,7 +22282,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -22289,7 +22321,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -22328,7 +22360,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22367,7 +22399,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22406,7 +22438,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22445,7 +22477,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22484,7 +22516,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22523,7 +22555,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22562,7 +22594,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22601,7 +22633,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22640,7 +22672,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22679,7 +22711,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22718,7 +22750,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22757,7 +22789,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22796,7 +22828,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22835,7 +22867,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22874,7 +22906,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22913,7 +22945,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22952,7 +22984,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22991,7 +23023,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -23030,7 +23062,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -23069,7 +23101,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -23108,7 +23140,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -23147,7 +23179,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -23186,7 +23218,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -23225,7 +23257,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -23264,7 +23296,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -23303,7 +23335,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -23342,7 +23374,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -23381,7 +23413,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -23420,7 +23452,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -23459,7 +23491,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -23498,7 +23530,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -23537,7 +23569,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -23576,7 +23608,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -23615,7 +23647,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -23654,7 +23686,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -23693,7 +23725,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23732,7 +23764,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23771,7 +23803,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23810,7 +23842,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23849,7 +23881,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23888,7 +23920,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23927,7 +23959,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23966,7 +23998,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -24005,7 +24037,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -24044,7 +24076,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -24083,7 +24115,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -24122,7 +24154,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -24161,7 +24193,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -24200,7 +24232,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -24239,7 +24271,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -24278,7 +24310,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -24317,7 +24349,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -24356,7 +24388,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -24395,7 +24427,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -24434,7 +24466,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -24473,7 +24505,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -24512,7 +24544,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -24551,7 +24583,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -24590,7 +24622,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -24629,7 +24661,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -24668,7 +24700,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24707,7 +24739,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24746,7 +24778,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24785,7 +24817,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24824,7 +24856,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24863,7 +24895,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24902,7 +24934,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24941,7 +24973,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24976,349 +25008,409 @@
         <v>-31714.40358714999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>215.4</v>
+        <v>215.3</v>
       </c>
       <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="C688" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="D688" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="E688" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="F688" t="n">
+        <v>4275.9716</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-27438.43198714999</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="C689" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="D689" t="n">
+        <v>223</v>
+      </c>
+      <c r="E689" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="F689" t="n">
+        <v>2588.2587</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-24850.17328714999</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="C690" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D690" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="E690" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="F690" t="n">
+        <v>4834.7616</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-29684.93488714999</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>222</v>
+      </c>
+      <c r="C691" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D691" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="E691" t="n">
+        <v>222</v>
+      </c>
+      <c r="F691" t="n">
+        <v>2837.2143</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-29684.93488714999</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>222</v>
+      </c>
+      <c r="C692" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D692" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="E692" t="n">
+        <v>222</v>
+      </c>
+      <c r="F692" t="n">
+        <v>6335.59023595</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-29684.93488714999</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="C693" t="n">
+        <v>222.7</v>
+      </c>
+      <c r="D693" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="E693" t="n">
+        <v>222.3</v>
+      </c>
+      <c r="F693" t="n">
+        <v>3818.32396405</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-25866.61092309999</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="C694" t="n">
+        <v>223</v>
+      </c>
+      <c r="D694" t="n">
+        <v>223</v>
+      </c>
+      <c r="E694" t="n">
+        <v>222.7</v>
+      </c>
+      <c r="F694" t="n">
+        <v>5055.3991</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-20811.21182309999</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="C695" t="n">
+        <v>223.1</v>
+      </c>
+      <c r="D695" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="E695" t="n">
+        <v>223</v>
+      </c>
+      <c r="F695" t="n">
+        <v>11914.5379</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-8896.673923099992</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="C696" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="D696" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="E696" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3290.7831</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-5605.890823099991</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>223.1</v>
+      </c>
+      <c r="C697" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D697" t="n">
+        <v>223.1</v>
+      </c>
+      <c r="E697" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="F697" t="n">
+        <v>5480.7472</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-11086.63802309999</v>
+      </c>
+      <c r="H697" t="n">
+        <v>2</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="K697" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L687" t="n">
-        <v>1.024712163416899</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="C688" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="D688" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="E688" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="F688" t="n">
-        <v>4275.9716</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-27438.43198714999</v>
-      </c>
-      <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>222.4</v>
-      </c>
-      <c r="C689" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="D689" t="n">
-        <v>223</v>
-      </c>
-      <c r="E689" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="F689" t="n">
-        <v>2588.2587</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-24850.17328714999</v>
-      </c>
-      <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="C690" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="D690" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="E690" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="F690" t="n">
-        <v>4834.7616</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-29684.93488714999</v>
-      </c>
-      <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>222</v>
-      </c>
-      <c r="C691" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="D691" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="E691" t="n">
-        <v>222</v>
-      </c>
-      <c r="F691" t="n">
-        <v>2837.2143</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-29684.93488714999</v>
-      </c>
-      <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>222</v>
-      </c>
-      <c r="C692" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="D692" t="n">
-        <v>222.5</v>
-      </c>
-      <c r="E692" t="n">
-        <v>222</v>
-      </c>
-      <c r="F692" t="n">
-        <v>6335.59023595</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-29684.93488714999</v>
-      </c>
-      <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>222.5</v>
-      </c>
-      <c r="C693" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="D693" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="E693" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="F693" t="n">
-        <v>3818.32396405</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-25866.61092309999</v>
-      </c>
-      <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>222.8</v>
-      </c>
-      <c r="C694" t="n">
-        <v>223</v>
-      </c>
-      <c r="D694" t="n">
-        <v>223</v>
-      </c>
-      <c r="E694" t="n">
-        <v>222.7</v>
-      </c>
-      <c r="F694" t="n">
-        <v>5055.3991</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-20811.21182309999</v>
-      </c>
-      <c r="H694" t="n">
-        <v>2</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="C695" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="D695" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="E695" t="n">
-        <v>223</v>
-      </c>
-      <c r="F695" t="n">
-        <v>11914.5379</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-8896.673923099992</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="C696" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="D696" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="E696" t="n">
-        <v>223.2</v>
-      </c>
-      <c r="F696" t="n">
-        <v>3290.7831</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-5605.890823099991</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="C697" t="n">
-        <v>222.1</v>
-      </c>
-      <c r="D697" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="E697" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="F697" t="n">
-        <v>5480.7472</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-11086.63802309999</v>
-      </c>
-      <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
-        <v>1</v>
+        <v>1.026583836507199</v>
       </c>
       <c r="M697" t="inlineStr"/>
     </row>
@@ -25708,7 +25800,7 @@
         <v>-19348.79899870999</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25741,7 +25833,7 @@
         <v>-15231.40309870999</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25774,7 +25866,7 @@
         <v>-9389.403898709987</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25906,7 +25998,7 @@
         <v>-10379.35499870999</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26005,7 +26097,7 @@
         <v>-13014.52779870999</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26071,7 +26163,7 @@
         <v>-12785.27309870999</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26170,7 +26262,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26203,7 +26295,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26269,7 +26361,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26302,7 +26394,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26335,7 +26427,7 @@
         <v>-11181.55989870999</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26434,7 +26526,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26467,7 +26559,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26500,7 +26592,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26533,7 +26625,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26566,7 +26658,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26599,7 +26691,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26632,7 +26724,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26665,7 +26757,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26698,7 +26790,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26731,7 +26823,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26764,7 +26856,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26797,7 +26889,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26830,7 +26922,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26863,7 +26955,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26896,7 +26988,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26929,7 +27021,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26962,7 +27054,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26995,7 +27087,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27028,7 +27120,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27061,7 +27153,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27094,7 +27186,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27127,7 +27219,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27160,7 +27252,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27193,7 +27285,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27226,7 +27318,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27259,7 +27351,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27292,7 +27384,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27325,7 +27417,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27358,7 +27450,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27391,7 +27483,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27424,7 +27516,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27457,7 +27549,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27490,7 +27582,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27523,7 +27615,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27556,7 +27648,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27589,7 +27681,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27622,7 +27714,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27655,7 +27747,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27688,7 +27780,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27721,7 +27813,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27754,7 +27846,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27787,7 +27879,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27820,7 +27912,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27853,7 +27945,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27886,7 +27978,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27919,7 +28011,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27952,7 +28044,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27985,7 +28077,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28018,7 +28110,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28051,7 +28143,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28084,7 +28176,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28117,7 +28209,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28150,7 +28242,7 @@
         <v>-22095.57359870999</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
